--- a/fontes_db/doadores_pref/Eleições 2012 - Doadores Comitê Coligação Prefeito e Vice-Prefeito.xlsx
+++ b/fontes_db/doadores_pref/Eleições 2012 - Doadores Comitê Coligação Prefeito e Vice-Prefeito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/doadores_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E46EB-5CC4-AE46-B6E9-FA1F75A4915E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9902E4-3D37-BF48-867F-FBA2E3F07448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{9F5133F7-2B49-4109-AA22-818485F20E7A}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="132">
   <si>
     <t>Cód. Eleição</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Sigla_Partido</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1956,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50EF69E7-8A1A-45A1-8102-9AFB7B3589EF}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50EF69E7-8A1A-45A1-8102-9AFB7B3589EF}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:D21" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="23">
     <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
@@ -2136,7 +2139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FAC042F-0BB7-4CB9-8898-64D83D300C75}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FAC042F-0BB7-4CB9-8898-64D83D300C75}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="23">
     <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
@@ -6544,192 +6547,238 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2F1F5F-0A35-4052-B3E5-EB2AB0BF5D94}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7">
         <v>1238981615</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>121</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.3763440860215055E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7">
         <v>1748888722</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
         <v>2361933764</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8.0645161290322578E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
         <v>3079841760</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>117</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.3763440860215055E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7">
         <v>7285078115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.9139784946236562E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7">
         <v>8210151762</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8.0645161290322578E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7">
         <v>17689198791</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.3763440860215055E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7">
         <v>32280785749</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.6129032258064516E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7">
         <v>7925189000172</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7">
         <v>10612199000162</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.21505376344086022</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7">
         <v>10977159000114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.6129032258064516E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7">
         <v>31198427000170</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7">
         <v>32150187000104</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.10752688172043011</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
         <v>36291870000104</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8.0645161290322578E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7">
         <v>36293264000128</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5.3763440860215055E-2</v>
       </c>
     </row>
